--- a/Assets/Resources/ExcelData/GameMoneyInfoTable.xlsx
+++ b/Assets/Resources/ExcelData/GameMoneyInfoTable.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_DungeonMayer\Assets\Resources\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_DT\Assets\Resources\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB61D45-B85A-4E93-AE36-42703952E86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E759469-8368-4871-9EE6-D82754647AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="2175" windowWidth="21600" windowHeight="11295" xr2:uid="{B7C1E6BB-5843-456B-8CF8-F8F9A197622A}"/>
+    <workbookView xWindow="3630" yWindow="1785" windowWidth="21600" windowHeight="11295" xr2:uid="{B7C1E6BB-5843-456B-8CF8-F8F9A197622A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>재화 이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,17 +590,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC30EBDC-38EF-41E7-8344-C763068F6860}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -757,61 +758,179 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="21" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="23" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="24" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="25" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="26" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="28" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="29" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="30" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="31" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="32" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A558615C-3D8D-4FA9-B442-F59876BB455B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>